--- a/FASE 2/OBSERVACIONES/Observaciones.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
   <si>
     <t>Fecha</t>
   </si>
@@ -4036,6 +4036,254 @@
   </si>
   <si>
     <t>Aparece en la funcionalidad Envío de lotes prefabricados a SAP, indicando el nombre de que no hay conexión. Por si acaso se corrieron los scripts de codigos de equivalencia. Para este escenario el resultado esperado está en la columna F</t>
+  </si>
+  <si>
+    <t>En la funcionalidad Envío de lotes Prefabricados a SAP falta un checkbox con el estado eliminado, para poder hacer la búsqueda y saber si el estado eliminado se envió a SAP. Por otra parte, cuando le doy en Buscar por estado "Registrado" me aparece el lote que eliminé, en todo caso, en la tabla error se guardó el ID del lote que en un primer momento se registró, y al hacer la consulta de los datos de este lote, ya no los encontrará en la base de datos (porque luego se eliminó) entonces no debería de listarse en la funcionalidad Envío de lotes con el estado "Registrado"</t>
+  </si>
+  <si>
+    <t>Confirmar</t>
+  </si>
+  <si>
+    <t>Cuando ingresé a SAP no se registró nada, sin embargo no aparece en la funcionalidad de envío de lotes prefabricados a SAP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De lote registrado a Conforme</t>
+    </r>
+  </si>
+  <si>
+    <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote recientemente actualizado, ingresé a ver su detalle. Seleccioné el estado "Conforme" y pulsé en botón Modificar.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje indicando que no puede cambiar el estado Registrado a Conforme sin existir ensayos. No se hace transferencia a SAP.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De lote registrado a No Conforme</t>
+    </r>
+  </si>
+  <si>
+    <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote recientemente actualizado, ingresé a ver su detalle. Seleccioné el estado "No Conforme" y pulsé en botón Modificar.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje indicando que no puede cambiar el estado Registrado a No Conforme sin existir ensayos. No se hace transferencia a SAP.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De lote registrado a En Espera</t>
+    </r>
+  </si>
+  <si>
+    <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote recientemente actualizado, ingresé a ver su detalle. Seleccioné el estado "En Espera" y pulsé en botón Modificar.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje indicando que no puede cambiar el estado Registrado a En Espera sin existir ensayos. No se hace transferencia a SAP.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De lote Conforme a Registrado</t>
+    </r>
+  </si>
+  <si>
+    <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote automaticamente cambiado a Conforme, ingresé a ver su detalle. Seleccioné el estado "Registrado" y pulsé en botón Modificar.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje indicando que no puede cambiar el estado Conforme a Registrado. No se hace transferencia a SAP.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De lote No Conforme a Registrado</t>
+    </r>
+  </si>
+  <si>
+    <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote automaticamente cambiado a No Conforme, ingresé a ver su detalle. Seleccioné el estado "Registrado" y pulsé en botón Modificar.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje indicando que no puede cambiar el estado No Conforme a Registrado. No se hace transferencia a SAP.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De lote En Espera a Registrado</t>
+    </r>
+  </si>
+  <si>
+    <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote automaticamente cambiado a En Espera, ingresé a ver su detalle. Seleccioné el estado "Registrado" y pulsé en botón Modificar.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje indicando que no puede cambiar el estado En Espera a Registrado. No se hace transferencia a SAP.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De lote Conforme a No Conforme</t>
+    </r>
+  </si>
+  <si>
+    <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote automaticamente cambiado a Conforme, ingresé a ver su detalle. Seleccioné el estado "No Conforme" y pulsé en botón Modificar.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje indicando que no puede cambiar el estado Conforme a No Conforme cuando se tienen ensayos todos conformes. No se hace transferencia a SAP.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De lote En Espera a Conforme</t>
+    </r>
+  </si>
+  <si>
+    <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote automaticamente cambiado a En Espera, ingresé a ver su detalle. Seleccioné el estado "Conforme" y pulsé en botón Modificar.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje indicando que no puede cambiar el estado En Espera a Conforme, cuando aun no se tiene valor de ensayo a 28 días. No se hace transferencia a SAP.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De lote En Espera a No Conforme</t>
+    </r>
+  </si>
+  <si>
+    <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote automaticamente cambiado a En Espera, ingresé a ver su detalle. Seleccioné el estado "No Conforme" y pulsé en botón Modificar.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje indicando que no puede cambiar el estado En Espera a No Conforme, cuando aun no se tiene valor de ensayo a 28 días. No se hace transferencia a SAP.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De lote Conforme a En Espera</t>
+    </r>
+  </si>
+  <si>
+    <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote automaticamente cambiado a Conforme, ingresé a ver su detalle. Seleccioné el estado "En Espera" y pulsé en botón Modificar.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de éxito de la operación. En la funcionalidad Envío de Lotes Prefabricados a Sap no aparece el lote modificado recientemente. En SAP GUI se consulta la RFC ejecutada, no tiene errores en el log.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>De lote No Conforme a En Espera</t>
+    </r>
+  </si>
+  <si>
+    <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote automaticamente cambiado a No Conforme, ingresé a ver su detalle. Seleccioné el estado "En Espera" y pulsé en botón Modificar.</t>
   </si>
 </sst>
 </file>
@@ -4115,7 +4363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4153,7 +4401,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4457,10 +4704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4563,7 +4810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="90">
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="270">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -4576,8 +4823,8 @@
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>56</v>
+      <c r="E7" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>34</v>
@@ -4600,7 +4847,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>29</v>
@@ -4622,8 +4869,8 @@
       <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>56</v>
+      <c r="E9" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>33</v>
@@ -4632,238 +4879,477 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="330">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
+    <row r="10" spans="1:7" ht="60">
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="90">
-      <c r="A11" s="1">
-        <v>6</v>
-      </c>
+    <row r="11" spans="1:7" ht="60">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="315">
-      <c r="A12" s="1">
-        <v>7</v>
-      </c>
+    <row r="12" spans="1:7" ht="60">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
+        <v>71</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:7" ht="330">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="90">
-      <c r="A14" s="1">
-        <v>8</v>
-      </c>
+    <row r="14" spans="1:7" ht="60">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="315">
-      <c r="A15" s="1">
-        <v>9</v>
-      </c>
+    <row r="15" spans="1:7" ht="60">
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="315">
-      <c r="A16" s="1">
-        <v>10</v>
-      </c>
+    <row r="16" spans="1:7" ht="90">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="178.5" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="13"/>
+    <row r="17" spans="1:7" ht="90">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C17" s="4" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="150">
-      <c r="A18" s="1"/>
-      <c r="B18" s="13"/>
+    <row r="18" spans="1:7" ht="315">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="105">
+    <row r="19" spans="1:7" ht="60">
       <c r="A19" s="1"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>47</v>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="240">
+    <row r="20" spans="1:7" ht="75">
       <c r="A20" s="1"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="90">
+      <c r="A22" s="1">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="315">
+      <c r="A23" s="1">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="315">
+      <c r="A24" s="1">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="178.5" customHeight="1">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="150">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="105">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="240">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/FASE 2/OBSERVACIONES/Observaciones.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Envio_lote_prefac_SAP" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Reconfig_forma_granul" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="124">
   <si>
     <t>Fecha</t>
   </si>
@@ -4284,6 +4283,2624 @@
   </si>
   <si>
     <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote automaticamente cambiado a No Conforme, ingresé a ver su detalle. Seleccioné el estado "En Espera" y pulsé en botón Modificar.</t>
+  </si>
+  <si>
+    <t>27.04.12</t>
+  </si>
+  <si>
+    <t>No se pude probar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar grafico curva granulométrica</t>
+    </r>
+  </si>
+  <si>
+    <t>Entre como fgastanaudi a la funcionalidad Administrar Muestra. Pulsé en el botón registrar, y en el formulario de creación escribí lo siguiente:
+Empresa: CSSA. Planta: Premezclados Rioja. Proceso: Recepción y almacenaje de M.P. Equipo: Genérico. Producto: Agregado fino - F. Fecha muestra: 2012-04-23. Pulsé en el botón Registrar. Luego pulsé en la pestaña Ensayos y en el botón Registrar Ensayo Granulométrico. En la pantalla de registro, en la columna Peso Retenido, escribo lo siguiente:
+3/8": 15.4
+N°4: 72.2
+N°8: 181.0
+Peso inicial: 0
+Pulsó en el botón Calcular.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje indicando que el peso inicial debe ser mayor a cero</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Peso inicial cero</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Peso inicial menor que cero</t>
+    </r>
+  </si>
+  <si>
+    <t>Entre como fgastanaudi a la funcionalidad Administrar Muestra. Pulsé en el botón registrar, y en el formulario de creación escribí lo siguiente:
+Empresa: CSSA. Planta: Premezclados Rioja. Proceso: Recepción y almacenaje de M.P. Equipo: Genérico. Producto: Agregado fino - F. Fecha muestra: 2012-04-23. Pulsé en el botón Registrar. Luego pulsé en la pestaña Ensayos y en el botón Registrar Ensayo Granulométrico. En la pantalla de registro, en la columna Peso Retenido, escribo lo siguiente:
+3/8": 15.4
+N°4: 72.2
+N°8: 181.0
+Peso inicial: -5
+Pulsó en el botón Calcular.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Peso inicial no numérico</t>
+    </r>
+  </si>
+  <si>
+    <t>Entre como fgastanaudi a la funcionalidad Administrar Muestra. Pulsé en el botón registrar, y en el formulario de creación escribí lo siguiente:
+Empresa: CSSA. Planta: Premezclados Rioja. Proceso: Recepción y almacenaje de M.P. Equipo: Genérico. Producto: Agregado fino - F. Fecha muestra: 2012-04-23. Pulsé en el botón Registrar. Luego pulsé en la pestaña Ensayos y en el botón Registrar Ensayo Granulométrico. En la pantalla de registro, en la columna Peso Retenido, escribo lo siguiente:
+3/8": 15.4
+N°4: 72.2
+N°8: 181.0
+Peso inicial: sasa
+Pulsó en el botón Calcular.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje indicando que el peso inicial debe ser numérico</t>
+  </si>
+  <si>
+    <t>Entre como fgastanaudi a la funcionalidad Administrar Muestra. Pulsé en el botón registrar, y en el formulario de creación escribí lo siguiente:
+Empresa: CSSA. Planta: Premezclados Rioja. Proceso: Recepción y almacenaje de M.P. Equipo: Genérico. Producto: Agregado fino - F. Fecha muestra: 2012-04-23. Pulsé en el botón Registrar. Luego pulsé en la pestaña Ensayos y en el botón Registrar Ensayo Granulométrico. En la pantalla de registro, en la columna Peso Retenido, escribo lo siguiente:
+3/8": 15.4
+N°4: 72.2
+N°8: 181.0
+Peso inicial: 50
+Pulsó en el botón Calcular. Sistema calcula los campos % Retenido Parcial, % Retenido Acumulado, % Que Pasa.
+Pulsó en el botón Registrar.</t>
+  </si>
+  <si>
+    <t>Sistema genera columna de % Que Pasa y Estado de Tratamiento, y tambien muestra el gráfico de tendencia con curva granulométrica con el eje "y" con datos del %Que Pasa (Línea azul), en el eje "x" con el tamaño en milimetros de cada tamiz y en la parte superior el tamaño del tamiz en pulgadas.
+En el grafico hay 2 líneas más de color rojo que son los valores minimo y máximo.</t>
+  </si>
+  <si>
+    <t>El sistema valida que una muestra tiene producto agregado fino y la otra muestra agregado grueso, por lo que en la sección de elección de porcentajes muestra la columna G1 y F1.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como base el caso de prueba anterior, escribo lo siguiente:
+En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grueso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fino:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. En la penultima columna</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 100. En la pemnultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 100. En la ultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 100. En la última columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 100. En la elección de especificaciones: 
+Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACI 304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESP DIN 1045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fuller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar Gráfico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Genera gráfico de combinación de agregados con eje "y" con valores del % Que Pasa, el eje "x" con Abertura del tamiz en milimetros, y en la parte superior el tamiz en pulgadas. Las líneas de tendencia mostradas son las generadas por Combinación de agregado columna 1, Combinación de agregados Diseño, Combinación de Agregados Ajustado. Valores Minimo y Maximo de especificación 304. Valores A y C de 1045, y Valores de Fuller.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 2 gruesos 2 finos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 1 grueso 1 fino</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulsé sobre la lupa de la primera Muestra, aparece ventana y escribí: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=3/8" a No. 8 - H8. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000110973.
+Luego busqué la segunda muestra: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000106278.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a No. 4 - H57. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000106248.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000106277.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>El sistema valida que dos muestras tienen producto agregado fino y las otras dos muestras agregado grueso, por lo que en la sección de elección de porcentajes muestra la columna G1, G2, F1 y F2.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como base el caso de prueba anterior, escribo lo siguiente:
+En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grueso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fino:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">G1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">25. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 75. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 50. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 50. En la ultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 20. En la ultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 80. En la última columna</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 50. En la última columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 50. En la elección de especificaciones: 
+Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACI 304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Seleccioné</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ESP DIN 1045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fuller.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pulsé en el botón Generar Gráfico.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 3 gruesos 3 finos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pulsé sobre la lupa de la primera Muestra, aparece ventana y escribí: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=3/8" a No. 8 - H8. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000110973.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000106278.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a No. 4 - H57. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000106248.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000106277.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a No. 4 - H57. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000106247.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 11-0000106276.</t>
+    </r>
+  </si>
+  <si>
+    <t>El sistema valida que tres muestras tienen producto agregado fino y las otras tres muestras, agregado grueso, por lo que en la sección de elección de porcentajes muestra la columna G1, G2, G3, F1, F2 y F3.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como base el caso de prueba anterior, escribo lo siguiente:
+En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grueso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fino:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. 
+En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">G1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">30. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 35. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 35. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 20. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 40. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 40. 
+En la ultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 35. En la última columna</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 20. En la última columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 45. En la ultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 35. En la última columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 20. En la última columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 45. En la elección de especificaciones: 
+Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACI 304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Seleccioné</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ESP DIN 1045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fuller.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pulsé en el botón Generar Gráfico.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar Gráfico de Combinación de Agregados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. En la pantalla de generación del gráfico indiqué lo siguiente:
+Pulsé sobre la lupa de la primera Muestra, aparece ventana y escribí: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado Fino - Límites Totales. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 8-0000094065.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a 3/8" - H56. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 8-0000094169.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Re-configurar formatos de granulometría - Generar gráfico de combinación de agregados - 1 grueso 1 fino</t>
   </si>
 </sst>
 </file>
@@ -4327,7 +6944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4359,11 +6976,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4389,12 +7019,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4409,6 +7033,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4706,8 +7348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4723,48 +7365,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
@@ -5061,7 +7703,7 @@
       <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -5103,7 +7745,7 @@
       <c r="C20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -5170,7 +7812,7 @@
       <c r="C23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -5193,7 +7835,7 @@
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -5280,7 +7922,7 @@
       <c r="D28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="4" t="s">
@@ -5316,13 +7958,13 @@
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -5337,7 +7979,7 @@
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -5365,25 +8007,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="71.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="255">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="225">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="225">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="225">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="240">
+      <c r="B6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="180">
+      <c r="B7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" ht="360">
+      <c r="B9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="180">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.5">
+      <c r="B11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="240">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/FASE 2/OBSERVACIONES/Observaciones.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="147">
   <si>
     <t>Fecha</t>
   </si>
@@ -4405,6 +4405,44 @@
     <t>El sistema valida que una muestra tiene producto agregado fino y la otra muestra agregado grueso, por lo que en la sección de elección de porcentajes muestra la columna G1 y F1.</t>
   </si>
   <si>
+    <t>Genera gráfico de combinación de agregados con eje "y" con valores del % Que Pasa, el eje "x" con Abertura del tamiz en milimetros, y en la parte superior el tamiz en pulgadas. Las líneas de tendencia mostradas son las generadas por Combinación de agregado columna 1, Combinación de agregados Diseño, Combinación de Agregados Ajustado. Valores Minimo y Maximo de especificación 304. Valores A y C de 1045, y Valores de Fuller.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 2 gruesos 2 finos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 1 grueso 1 fino</t>
+    </r>
+  </si>
+  <si>
+    <t>El sistema valida que dos muestras tienen producto agregado fino y las otras dos muestras agregado grueso, por lo que en la sección de elección de porcentajes muestra la columna G1, G2, F1 y F2.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Tomando como base el caso de prueba anterior, escribo lo siguiente:
 En la columna </t>
@@ -4449,6 +4487,859 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">G1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">25. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 75. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 50. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 50. En la ultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 20. En la ultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 80. En la última columna</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 50. En la última columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 50. En la elección de especificaciones: 
+Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACI 304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Seleccioné</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ESP DIN 1045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fuller.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pulsé en el botón Generar Gráfico.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 3 gruesos 3 finos</t>
+    </r>
+  </si>
+  <si>
+    <t>El sistema valida que tres muestras tienen producto agregado fino y las otras tres muestras, agregado grueso, por lo que en la sección de elección de porcentajes muestra la columna G1, G2, G3, F1, F2 y F3.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como base el caso de prueba anterior, escribo lo siguiente:
+En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grueso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fino:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. 
+En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">G1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">30. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 35. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 35. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 20. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 40. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 40. 
+En la ultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 35. En la última columna</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 20. En la última columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 45. En la ultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 35. En la última columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 20. En la última columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 45. En la elección de especificaciones: 
+Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACI 304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Seleccioné</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ESP DIN 1045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fuller.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pulsé en el botón Generar Gráfico.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 1 grueso 1 fino - en lugar equivocado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar Gráfico de Combinación de Agregados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. En la pantalla de generación del gráfico indiqué lo siguiente:
+Pulsé sobre la lupa de la primera Muestra, aparece ventana y escribí: 
+En la busqueda de muestra G1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado Fino - Límites Totales. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 8-0000094065.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>El sistema valida de que el producto de la muestra seleccionada sea Grueso, porque se está haciendo a busqueda en ese campo. Comprueba que no es y no permite que se escriba el código.</t>
+  </si>
+  <si>
+    <t>El sistema valida de que el producto de la muestra seleccionada sea Fino, porque se está haciendo a busqueda en ese campo. Comprueba que no es y no permite que se escriba el código.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como base el caso de prueba anterior, escribo lo siguiente:
+En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grueso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fino:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. En la penultima columna</t>
     </r>
     <r>
@@ -4470,7 +5361,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: 100. En la pemnultima columna </t>
+      <t xml:space="preserve">: 100. En la penultima columna </t>
     </r>
     <r>
       <rPr>
@@ -4623,9 +5514,6 @@
     </r>
   </si>
   <si>
-    <t>Genera gráfico de combinación de agregados con eje "y" con valores del % Que Pasa, el eje "x" con Abertura del tamiz en milimetros, y en la parte superior el tamiz en pulgadas. Las líneas de tendencia mostradas son las generadas por Combinación de agregado columna 1, Combinación de agregados Diseño, Combinación de Agregados Ajustado. Valores Minimo y Maximo de especificación 304. Valores A y C de 1045, y Valores de Fuller.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
     </r>
@@ -4638,28 +5526,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Generar gráfico de combinación de agregados - 2 gruesos 2 finos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Generar gráfico de combinación de agregados - 1 grueso 1 fino</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulsé sobre la lupa de la primera Muestra, aparece ventana y escribí: 
+      <t>Generar gráfico de combinación de agregados - elección de porcentajes no suman 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón Generar Gráfico de Combinación de Agregados. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la búsqueda de muestra G1:
 </t>
     </r>
     <r>
@@ -4787,7 +5660,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">: 11-0000110973.
-Luego busqué la segunda muestra: </t>
+En la búsqueda de muestra F1:
+</t>
     </r>
     <r>
       <rPr>
@@ -4914,6 +5788,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">: 11-0000106278.
+En la búsqueda de muestra G2:
 </t>
     </r>
     <r>
@@ -5041,6 +5916,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">: 11-0000106248.
+En la búsqueda de muestra F2:
 </t>
     </r>
     <r>
@@ -5170,300 +6046,533 @@
       <t xml:space="preserve">: 11-0000106277.
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón Generar Gráfico de Combinación de Agregados. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la búsqueda de muestra G1:
 </t>
     </r>
-  </si>
-  <si>
-    <t>El sistema valida que dos muestras tienen producto agregado fino y las otras dos muestras agregado grueso, por lo que en la sección de elección de porcentajes muestra la columna G1, G2, F1 y F2.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tomando como base el caso de prueba anterior, escribo lo siguiente:
-En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Grueso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fino:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. En la penultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">G1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">25. En la penultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 75. En la penultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 50. En la penultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 50. En la ultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 20. En la ultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 80. En la última columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> F1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 50. En la última columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 50. En la elección de especificaciones: 
-Seleccioné </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ACI 304</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Seleccioné</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ESP DIN 1045</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Seleccioné </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fuller.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Pulsé en el botón Generar Gráfico.</t>
-    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=3/8" a No. 8 - H8. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000110973.
+En la búsqueda de muestra F1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000106278.
+En la búsqueda de muestra G2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a No. 4 - H57. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000106248.
+En la búsqueda de muestra F2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 11-0000106277.
+En la elección de porcentajes escribo:
+En la columna Grueso: 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna Fino: 0.40 - 0.40 - 0.40 - 0.50 - 0.42. En la penultima columna G1: 25. En la penultima columna G2: 75. En la penultima columna F1: 50. En la penultima columna F2: 80. En la ultima columna G1: 20. En la ultima columna G2: 80. En la última columna F1: 50. En la última columna F2: 50. En la elección de especificaciones: 
+Seleccioné ACI 304. Seleccioné ESP DIN 1045. Seleccioné Fuller. Pulsé en el botón Generar Gráfico.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Sistema muestra mensaje indicando que los finos deben sumar 100%.</t>
+  </si>
+  <si>
+    <t>Sistema muestra mensaje indicando que los gruesos deben sumar 100%.</t>
   </si>
   <si>
     <r>
@@ -5478,12 +6587,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Generar gráfico de combinación de agregados - 3 gruesos 3 finos</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pulsé sobre la lupa de la primera Muestra, aparece ventana y escribí: 
+      <t>Generar gráfico de combinación de agregados - 2 gruesos 2 finos - elección de porcentajes no suman 100%</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón Generar Gráfico de Combinación de Agregados. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la busqueda de muestra G1:
 </t>
     </r>
     <r>
@@ -5611,6 +6721,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">: 11-0000110973.
+En la búsqueda de muestra F1:
 </t>
     </r>
     <r>
@@ -5738,6 +6849,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">: 11-0000106278.
+En la búsqueda de muestra G2:
 </t>
     </r>
     <r>
@@ -5865,6 +6977,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">: 11-0000106248.
+En la búsqueda de muestra F2:
 </t>
     </r>
     <r>
@@ -5992,6 +7105,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">: 11-0000106277.
+En la búsqueda de muestra G3:
 </t>
     </r>
     <r>
@@ -6119,6 +7233,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">: 11-0000106247.
+En la búsqueda de muestra F3:
 </t>
     </r>
     <r>
@@ -6249,372 +7364,19 @@
     </r>
   </si>
   <si>
-    <t>El sistema valida que tres muestras tienen producto agregado fino y las otras tres muestras, agregado grueso, por lo que en la sección de elección de porcentajes muestra la columna G1, G2, G3, F1, F2 y F3.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tomando como base el caso de prueba anterior, escribo lo siguiente:
-En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Grueso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fino:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. 
-En la penultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">G1: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">30. En la penultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 35. En la penultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 35. En la penultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 20. En la penultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 40. En la penultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 40. 
-En la ultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 35. En la última columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> G2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 20. En la última columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 45. En la ultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 35. En la última columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 20. En la última columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 45. En la elección de especificaciones: 
-Seleccioné </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ACI 304</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Seleccioné</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ESP DIN 1045</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Seleccioné </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fuller.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Pulsé en el botón Generar Gráfico.</t>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 3 gruesos 3 finos - elección de porcentajes no suman 100%</t>
     </r>
   </si>
   <si>
@@ -6641,7 +7403,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">. En la pantalla de generación del gráfico indiqué lo siguiente:
-Pulsé sobre la lupa de la primera Muestra, aparece ventana y escribí: 
+En la busqueda de muestra F1:
 </t>
     </r>
     <r>
@@ -6769,6 +7531,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">: 8-0000094065.
+En la busqueda de muestra G1:
 </t>
     </r>
     <r>
@@ -6900,7 +7663,1150 @@
     </r>
   </si>
   <si>
-    <t>Re-configurar formatos de granulometría - Generar gráfico de combinación de agregados - 1 grueso 1 fino</t>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón Generar Gráfico de Combinación de Agregados. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la busqueda de muestra F1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado Fino - Límites Totales. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 8-0000094065.
+En la busqueda de muestra G1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a 3/8" - H56. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 8-0000094169.
+Se habilita la elección de porcentajes:
+En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grueso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fino:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. En la penultima columna</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 80. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 100. En la ultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 100. En la última columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 100. En la elección de especificaciones: 
+Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACI 304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESP DIN 1045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fuller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar Gráfico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar Gráfico de Combinación de Agregados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la busqueda de muestra F1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a 3/8" - H56. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 8-0000094169.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia el caso de prueba nro. 13
+En la elección de porcentajes escribo:
+En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grueso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fino:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. 
+En la penultima columna G1: 30. En la penultima columna G2: 35. En la penultima columna G3: 50. En la penultima columna F1: 20. En la penultima columna F2: 40. En la penultima columna F3: 40. 
+En la ultima columna G1: 35. En la última columna G2: 20. En la última columna G3: 45. En la ultima columna F1: 35. En la última columna F2: 20. En la última columna F3: 45. En la elección de especificaciones: 
+Seleccioné ACI 304. Seleccioné ESP DIN 1045. Seleccioné Fuller. Pulsé en el botón Generar Gráfico.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 3 gruesos 3 finos - No seleccioné las especificaciones</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia el caso de prueba nro. 13
+En la elección de porcentajes escribo:
+En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grueso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fino:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. 
+En la penultima columna G1: 30. En la penultima columna G2: 35. En la penultima columna G3: 50. En la penultima columna F1: 20. En la penultima columna F2: 40. En la penultima columna F3: 40. 
+En la ultima columna G1: 35. En la última columna G2: 20. En la última columna G3: 45. En la ultima columna F1: 35. En la última columna F2: 20. En la última columna F3: 45. En la  Pulsé en el botón Generar Gráfico.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Sistema muestra mensaje indicando que debo seleccionar al menos una especificación</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia el caso de prueba nro. 13
+En la elección de porcentajes escribo:
+En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grueso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fino:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. 
+En la penultima columna G1: 30. En la penultima columna G2: 35. En la penultima columna G3: 50. En la penultima columna F1: 20. En la penultima columna F2: 40. En la penultima columna F3: 40. 
+En la ultima columna G1: 35. En la última columna G2: 20. En la última columna G3: 45. En la ultima columna F1: 35. En la última columna F2: 20. En la última columna F3: 45. En la elección de especificaciones: 
+Seleccioné ACI 304. Pulsé en el botón Generar Gráfico.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Genera gráfico de combinación de agregados con eje "y" con valores del % Que Pasa, el eje "x" con Abertura del tamiz en milimetros, y en la parte superior el tamiz en pulgadas. Las líneas de tendencia mostradas son las generadas por Combinación de agregado columna 1, Combinación de agregados Diseño, Combinación de Agregados Ajustado. Valores Minimo y Maximo de especificación 304.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 3 gruesos 3 finos - Seleccioné especificación ACI 304</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 3 gruesos 3 finos -Seleccioné especificación ACI 304 y 1045</t>
+    </r>
+  </si>
+  <si>
+    <t>Genera gráfico de combinación de agregados con eje "y" con valores del % Que Pasa, el eje "x" con Abertura del tamiz en milimetros, y en la parte superior el tamiz en pulgadas. Las líneas de tendencia mostradas son las generadas por Combinación de agregado columna 1, Combinación de agregados Diseño, Combinación de Agregados Ajustado. Valores Minimo y Maximo de especificación 304. Valores A y C de 1045</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 1 grueso y otro producto que no es agregado</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar Gráfico de Combinación de Agregados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la busqueda de muestra G1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a 3/8" - H56. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 8-0000094169.
+En la busqueda de muestra F1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Almac. y Despacho de Prefabricados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Adoquín 4 TMS. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 11-0000231774</t>
+    </r>
+  </si>
+  <si>
+    <t>El sistema muestra indicando que el producto debe ser agregado.</t>
   </si>
 </sst>
 </file>
@@ -7348,8 +9254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8007,10 +9913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8047,7 +9953,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="255">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>97</v>
       </c>
@@ -8068,7 +9976,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="225">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>97</v>
       </c>
@@ -8089,7 +9999,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="225">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>97</v>
       </c>
@@ -8110,7 +10022,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="225">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>97</v>
       </c>
@@ -8131,14 +10045,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="240">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>98</v>
@@ -8151,112 +10068,324 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="180">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
+    <row r="8" spans="1:7" ht="360">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="360">
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:7" ht="180">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="C9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="180">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:7" ht="150">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="409.5">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="17" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="240">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:7" ht="180">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="409.5">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.5">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="240">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="270">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="240">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="255">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="270">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="240">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/FASE 2/OBSERVACIONES/Observaciones.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Envio_lote_prefac_SAP" sheetId="1" r:id="rId1"/>
@@ -3584,27 +3584,6 @@
     </r>
   </si>
   <si>
-    <t>Aparece mensaje de que se realizó la operación con éxito. El SAC no envía información del lote a SAP, porque no tiene el tamaño del lote. En SAP GUI no existe registro de llamada al RFC.</t>
-  </si>
-  <si>
-    <t>Aparece mensaje de éxito de la operación de que se registraron correctamente los ensayos. El estado del lote cambia de estado a Conforme. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta la RFC ejecutada, no tiene errores en el log.</t>
-  </si>
-  <si>
-    <t>Aparece mensaje de éxito de la operación. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta la RFC ejecutada, no tiene errores en el log.</t>
-  </si>
-  <si>
-    <t>Aparece mensaje de éxito de la operación. En SAC se elimina fisicamente el lote. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta la RFC ejecutada, no tiene errores en el log.</t>
-  </si>
-  <si>
-    <t>Aparece mensaje de que se realizó la operación con éxito. El SAC envía información del lote a SAP. En SAP GUI se consulta la RFC ejecutada, no tiene errores en el log.</t>
-  </si>
-  <si>
-    <t>Aparece mensaje de que se realizó la operación con éxito. En SAC se elimina físicamente el lote. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta la RFC ejecutada, no tiene errores en el log.</t>
-  </si>
-  <si>
-    <t>Aparece mensaje de que se realizó la operación con éxito. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta la RFC ejecutada, no tiene errores en el log.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -3695,12 +3674,6 @@
       </rPr>
       <t xml:space="preserve"> En SAP GUI en caso de existir llamada a la RFC y el log está con mensajes, se entiende que ha habido problemas para ejecutar la RFC</t>
     </r>
-  </si>
-  <si>
-    <t>Aparece mensaje de éxito de la operación de que se registraron correctamente los ensayos. El estado del lote cambia de estado a No Conforme. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta la RFC ejecutada, no tiene errores en el log.</t>
-  </si>
-  <si>
-    <t>Aparece mensaje de éxito de la operación. SAC elimina físicamente al lote y todos sus datos relacionados. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta la RFC ejecutada, no tiene errores en el log.</t>
   </si>
   <si>
     <t>Aparece mensaje de éxito de la operación de que se registraron correctamente los ensayos. El estado del lote cambia de estado a En Espera. SAC no envía información a SAP. En SAP GUI no existe registro de llamada al RFC.</t>
@@ -3755,9 +3728,6 @@
 </t>
   </si>
   <si>
-    <t>Aparece mensaje de éxito de la operación de que se registraron correctamente los ensayos. El estado del lote cambia de estado a Conforme. En la funcionalidad Envío de lotes prefabricados a SAP aparece el lote con ID: 11-0000030080, con el mensaje de error de SAP, en vista de que es un lote antiguo y antes no ha sido registrado en SAP, por lo que el RFC de traslado no encuentra el ID. En SAP GUI se consulta la RFC ejecutada, se encuentran errores en el log.</t>
-  </si>
-  <si>
     <t>No me deja registrar más ensayos porque aparece que no tengo el alcance a la muestra. No he podido probar.</t>
   </si>
   <si>
@@ -3781,9 +3751,6 @@
 Empresa: DINO. Planta: Premezclados Pacasmayo. Línea de prod.: Bloque Estructural - Tipo MS. Pared 12 TMS. Fecha prod. ini: 2006-01-01. Fecha prod. fin: 2012-04-26. Pulsé en el botón Buscar e ingresé al detalle del ID: 8-0000014834. Luego pulsé en el botón Eliminar.</t>
   </si>
   <si>
-    <t>Aparece mensaje de éxito de la operación. SAC elimina físicamente el lote. En la funcionalidad Envío de lotes prefabricados a SAP aparece el lote con ID: 8-0000014834, con el mensaje de error de SAP, en vista de que es un lote antiguo y antes no ha sido registrado en SAP, por lo que el RFC de reversión no encuentra el ID del lote. En SAP GUI se consulta la RFC ejecutada, se encuentran errores en el log.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
     </r>
@@ -4028,9 +3995,6 @@
     </r>
   </si>
   <si>
-    <t>Aparece mensaje de éxito de la operación. En la funcionalidad Envío de lotes prefabricados a SAP aparece el lote recientemente creado. En SAP GUI se consulta la RFC ejecutada, tiene errores en el log.</t>
-  </si>
-  <si>
     <t>Actualmente en la funcionalidad Envío de lotes prefabricados a SAP aparece el lote indicando que no hay conexión en SAP, sin embargo se ejecutó el script para que todas las plantas tengan el mismo código de equivalencia, por lo que hay error aqui, debería haber pasado. Sin embargo, para este caso de prueba el escenario correcto es: la empresa y planta premezclados rioja no tienen codigos de equivalencia (centro, almacen e imputación), por lo que debería registrar el lote e ir a la tabla de errores de transferencia al SAP.</t>
   </si>
   <si>
@@ -4261,9 +4225,6 @@
   </si>
   <si>
     <t>Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote automaticamente cambiado a Conforme, ingresé a ver su detalle. Seleccioné el estado "En Espera" y pulsé en botón Modificar.</t>
-  </si>
-  <si>
-    <t>Aparece mensaje de éxito de la operación. En la funcionalidad Envío de Lotes Prefabricados a Sap no aparece el lote modificado recientemente. En SAP GUI se consulta la RFC ejecutada, no tiene errores en el log.</t>
   </si>
   <si>
     <r>
@@ -8807,6 +8768,45 @@
   </si>
   <si>
     <t>El sistema muestra indicando que el producto debe ser agregado.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de que se realizó la operación con éxito. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de que se realizó la operación con éxito. En SAC se elimina físicamente el lote. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de que se realizó la operación con éxito. El SAC no envía información del lote a SAP, porque no tiene el tamaño del lote. En SAP GUI se consulta transacción SE16N</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de que se realizó la operación con éxito. El SAC envía información del lote a SAP. En SAP GUI se consulta transacción SE16N.</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de éxito de la operación de que se registraron correctamente los ensayos. El estado del lote cambia de estado a Conforme. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de éxito de la operación. En la funcionalidad Envío de Lotes Prefabricados a Sap no aparece el lote modificado recientemente. En SAP GUI se consulta transacción SE16N</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de éxito de la operación. En SAC se elimina fisicamente el lote. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de éxito de la operación de que se registraron correctamente los ensayos. El estado del lote cambia de estado a No Conforme. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de éxito de la operación. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de éxito de la operación. SAC elimina físicamente al lote y todos sus datos relacionados. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de éxito de la operación de que se registraron correctamente los ensayos. El estado del lote cambia de estado a Conforme. En la funcionalidad Envío de lotes prefabricados a SAP aparece el lote con ID: 11-0000030080, con el mensaje de error de SAP, en vista de que es un lote antiguo y antes no ha sido registrado en SAP, por lo que el RFC de traslado no encuentra el ID. En SAP GUI se consulta transacción SE16N</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de éxito de la operación. SAC elimina físicamente el lote. En la funcionalidad Envío de lotes prefabricados a SAP aparece el lote con ID: 8-0000014834, con el mensaje de error de SAP, en vista de que es un lote antiguo y antes no ha sido registrado en SAP, por lo que el RFC de reversión no encuentra el ID del lote. En SAP GUI se consulta transacción SE16N</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de éxito de la operación. En la funcionalidad Envío de lotes prefabricados a SAP aparece el lote recientemente creado. En SAP GUI se consulta transacción SE16N</t>
   </si>
 </sst>
 </file>
@@ -8943,12 +8943,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -8957,6 +8951,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9254,8 +9254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9271,30 +9271,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="A1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -9305,7 +9305,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -9349,10 +9349,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>5</v>
@@ -9372,10 +9372,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>5</v>
@@ -9395,10 +9395,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
@@ -9418,10 +9418,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
@@ -9433,16 +9433,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>5</v>
@@ -9454,16 +9454,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>5</v>
@@ -9475,16 +9475,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>5</v>
@@ -9507,7 +9507,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>5</v>
@@ -9519,16 +9519,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>5</v>
@@ -9540,43 +9540,43 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="90">
+    <row r="16" spans="1:7" ht="75">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="90">
+    <row r="17" spans="1:7" ht="75">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -9590,10 +9590,10 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>5</v>
@@ -9616,7 +9616,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>5</v>
@@ -9628,58 +9628,58 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="75">
+    <row r="20" spans="1:7" ht="60">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="90">
+    <row r="21" spans="1:7" ht="75">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>5</v>
@@ -9699,10 +9699,10 @@
         <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>5</v>
@@ -9722,10 +9722,10 @@
         <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>5</v>
@@ -9745,10 +9745,10 @@
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>5</v>
@@ -9760,16 +9760,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>5</v>
@@ -9781,16 +9781,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>5</v>
@@ -9802,16 +9802,16 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>5</v>
@@ -9823,37 +9823,37 @@
         <v>7</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="150">
+    <row r="29" spans="1:7" ht="135">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>5</v>
@@ -9865,16 +9865,16 @@
         <v>7</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>5</v>
@@ -9886,16 +9886,16 @@
         <v>7</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>5</v>
@@ -9915,7 +9915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -9957,19 +9957,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>5</v>
@@ -9980,19 +9980,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>5</v>
@@ -10003,19 +10003,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>5</v>
@@ -10026,19 +10026,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>5</v>
@@ -10049,19 +10049,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>5</v>
@@ -10072,19 +10072,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>5</v>
@@ -10095,19 +10095,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
@@ -10118,19 +10118,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
@@ -10141,19 +10141,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>5</v>
@@ -10163,22 +10163,22 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="19" t="s">
+      <c r="E11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10187,19 +10187,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>5</v>
@@ -10209,22 +10209,22 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>98</v>
+      <c r="B13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10232,22 +10232,22 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="B14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="E14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10256,19 +10256,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>5</v>
@@ -10279,19 +10279,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>5</v>
@@ -10302,19 +10302,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>5</v>
@@ -10325,19 +10325,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>5</v>
@@ -10348,19 +10348,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>5</v>
@@ -10371,19 +10371,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>5</v>

--- a/FASE 2/OBSERVACIONES/Observaciones.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="175">
   <si>
     <t>Fecha</t>
   </si>
@@ -4323,9 +4323,6 @@
 En el grafico hay 2 líneas más de color rojo que son los valores minimo y máximo.</t>
   </si>
   <si>
-    <t>El sistema valida que una muestra tiene producto agregado fino y la otra muestra agregado grueso, por lo que en la sección de elección de porcentajes muestra la columna G1 y F1.</t>
-  </si>
-  <si>
     <t>Genera gráfico de combinación de agregados con eje "y" con valores del % Que Pasa, el eje "x" con Abertura del tamiz en milimetros, y en la parte superior el tamiz en pulgadas. Las líneas de tendencia mostradas son las generadas por Combinación de agregado columna 1, Combinación de agregados Diseño, Combinación de Agregados Ajustado. Valores Minimo y Maximo de especificación 304. Valores A y C de 1045, y Valores de Fuller.</t>
   </si>
   <si>
@@ -5042,172 +5039,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Generar gráfico de combinación de agregados - 1 grueso 1 fino - en lugar equivocado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Generar Gráfico de Combinación de Agregados</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. En la pantalla de generación del gráfico indiqué lo siguiente:
-Pulsé sobre la lupa de la primera Muestra, aparece ventana y escribí: 
-En la busqueda de muestra G1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Agregado Fino - Límites Totales. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 8-0000094065.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
   <si>
@@ -7298,764 +7129,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Generar gráfico de combinación de agregados - 3 gruesos 3 finos - elección de porcentajes no suman 100%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Generar Gráfico de Combinación de Agregados</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. En la pantalla de generación del gráfico indiqué lo siguiente:
-En la busqueda de muestra F1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Agregado Fino - Límites Totales. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 8-0000094065.
-En la busqueda de muestra G1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A.G. chancado TMN=1" a 3/8" - H56. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 8-0000094169.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón Generar Gráfico de Combinación de Agregados. En la pantalla de generación del gráfico indiqué lo siguiente:
-En la busqueda de muestra F1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Agregado Fino - Límites Totales. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 8-0000094065.
-En la busqueda de muestra G1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A.G. chancado TMN=1" a 3/8" - H56. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 8-0000094169.
-Se habilita la elección de porcentajes:
-En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Grueso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fino:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. En la penultima columna</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> G1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 80. En la penultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 100. En la ultima columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 100. En la última columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>F1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 100. En la elección de especificaciones: 
-Seleccioné </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ACI 304</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Seleccioné </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ESP DIN 1045</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Seleccioné </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fuller</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Generar Gráfico</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
     </r>
   </si>
   <si>
@@ -8979,6 +8052,2445 @@
   </si>
   <si>
     <t>El gráfico que aparece en la ventana emergente de la impresión NO es el mismo que el generado en la primera pantalla. Agregar lo de curva granulométrica (eje "x" inferior con valores de abertura en milimetros y eje "x" superior con los de los tamices en pulgadas); asïmismo; verificar que sean los mismos valores:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar grafico curva granulométrica - peso inicial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia el caso de prueba anterior, ingreso nuevamente a la muestra 2012-49, luego pulso en la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ensayos,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Granulométrico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y seleccionó el </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grupo Tipo de Ensayo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Análisis Granulométrico.</t>
+    </r>
+  </si>
+  <si>
+    <t>Aparecen los valores de los tamices con los pesos retenidos, % Retenido Parcial, % Retenido Acumulado, % Que Pasa, el Peso Inicial y el botón para Generar Gráfico.</t>
+  </si>
+  <si>
+    <t>En el campo del peso inicial, aparece cero, sin embargo, anteriormente lo grabé como 50.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar Gráfico de Combinación de Agregados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la busqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a 3/8" - H56. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2008-01-01. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha fin:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2008-06-01. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 8-0000094169.
+En la busqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado Fino - Límites Totales. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2008-01-01. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha fin:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2008-07-01. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 8-0000094065.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 1 grueso 1 fino - sin peso inicial</t>
+    </r>
+  </si>
+  <si>
+    <t>Ambas muestras son del 2008 por ello no tienen peso inicial, por ello me está reenviando a la pantalla de Registro Granulométrico y/o a veces no me carga el ID.  En este caso debería permitirme seleccionar estas muestras y que utilice la formula anterior, en vista de que no hay pesos iniciales.</t>
+  </si>
+  <si>
+    <t>El sistema valida que una muestra tiene producto agregado fino y la otra muestra agregado grueso, por lo que en la sección de elección de porcentajes muestra la columna G1 y F1. Sistema valida que estas muestras al no tener peso inicial, se utilice la formula anterior de generación de porcentajes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 1 grueso 1 fino - con peso inicial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón Generar Gráfico de Combinación de Agregados. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la busqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a 3/8" - H56. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2012-04-24. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha fin:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2012-04-25. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 12-0000000050. Esta muestra tiene tamices: 3/8" --&gt;79. N°4 --&gt;761. N°8 --&gt; 387.
+En la busqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado Fino - Límites Totales. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2012-04-24. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha fin:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2012-04-25. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 12-0000000051. Esta muestra tiene tamices: N°4--&gt; 6. N°8--&gt; 165. N°16--&gt; 206. N°30--&gt; 154. N°50--&gt; 146. N°100 --&gt; 178. N°200 --&gt; 62. Fondo --&gt; 3  </t>
+    </r>
+  </si>
+  <si>
+    <t>Se habilitan las columnas G1 y F1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La línea de "Diseño" es un verde más oscuro y con líneas intermitentes. La línea "Ajustado" es de color naranja oscuro y con líneas intermitentes. El gráfico generado en el SAC comparado con el excel (al que le ingresé los mismos valores), no son iguales, por favor verificar y corregir. La línea "Ajustado" debería estar cerca a la de "Diseño" según formula. La línea "Esp A" debería ser una línea roja simple, sin cuadrados en los puntos. La línea "Esp C" debería ser una línea roja con cuadrados en los puntos, como excepción para diferenciarla de la "Esp A". La línea "Mínimo" debería llamarse "304 min", ver excel. Y debería ser de color turquesa con cuadrados fucsias en los puntos. La línea "Máximo" debería llamarse "304 max", ver excel. Y debe ser una línea turquesa simple, sin cuadrados en los puntos. La línea "Fuller" debería ser simple color azul. La línea "C2" deber llamarse "C1" y debería ser una línea azul con circulos en los puntos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los valores máximos de los tamices N°100 y N°200, no están iguales a los mostrados en el documento. Los valores mínimos de los tamices N°4, N°30 y N°50, no están iguales a los mostrados en el documento.
+Finalmente, los valores de aberturas de los tamices son: 1 1/2"--&gt; 37.500 (No 37.000), 3/4" --&gt; 19.000 (No 12.500), 1/2"--&gt;12.500 (No 9.500), 3/8"--&gt;9.500 (No 4.750), N°4 --&gt; 4.750 (No 2.360), N°8--&gt; 2.360 (No 1.180), N°16--&gt; 1.180 (No 0.180), 
+</t>
+  </si>
+  <si>
+    <t>Corregir ortografía del mensaje, en vez de "deve" es "debe":</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar Gráfico de Combinación de Agregados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. En la pantalla de generación del gráfico indiqué lo siguiente:
+Pulsé sobre la lupa de la primera Muestra, aparece ventana y escribí: 
+En la busqueda de muestra G1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado Fino - Límites Totales. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha de inicio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2008-06-01. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha de fin:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2008-06-04. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 8-0000094136.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Cuando intenté buscar el siguiente ID pulsando sobre la lupa del F1, me aparece el popup la pantalla en blanco con un mensaje. A la segunda vez que lo intenté (me desloguié y volví a entrar) ya me permitió elegir el ID del F1.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 2 gruesos 2 finos - sin peso inicial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar gráfico de combinación de agregados - 2 gruesos 2 finos - con peso inicial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón Generar Gráfico de Combinación de Agregados. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la busqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a 3/8" - H56. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-24. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha fin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-25. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 12-0000000050. 
+En la busqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado Fino - Límites Totales. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2012-04-24. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha fin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-25. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 12-0000000051. 
+Se habilita la elección de porcentajes:
+En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grueso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fino:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0.40 - 0.40 - 0.40 - 0.50 - 0.42. En la penultima columna</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 80. En la penultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 100. En la ultima columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 100. En la última columna </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 100. En la elección de especificaciones: 
+Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACI 304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESP DIN 1045</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Seleccioné </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fuller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar Gráfico</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón Generar Gráfico de Combinación de Agregados. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la busqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a 3/8" - H56. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-24. Fecha fin: 2012-04-25. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 12-0000000050. 
+En la busqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado Fino - Límites Totales. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-24. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha fin:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2012-04-25. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 12-0000000051. 
+En la búsqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a No. 4 - H57. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 12-0000000052. Los valores de los tamices son: 3/4" --&gt; 4540. 1/2"  --&gt; 6240. 3/8"  --&gt; 2660. N°4  --&gt; 7300. 
+En la búsqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 12-0000000053. Los valores de los tamices son: N°4 --&gt; 6.0  N°8  --&gt; 49.5  N°16  --&gt; 66.1. N°30  --&gt; 98.2  N°50  --&gt; 129.2  N°100  --&gt; 110.4  N°200  --&gt; 32.0  Fondo  --&gt; 4.5. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Me desloguea cuando selecciono la muestra 12-0000000052. Y tambien cuando quiero registrar más ensayos. Por favor verificar. </t>
   </si>
 </sst>
 </file>
@@ -9077,7 +10589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9133,11 +10645,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9146,6 +10664,105 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>504824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2481604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect l="33113" t="38379" r="37518" b="34710"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5905500" y="36680774"/>
+          <a:ext cx="2838450" cy="1976780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1485900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1809215</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2752725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect l="12628" t="26147" r="6021" b="19419"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5924550" y="46805850"/>
+          <a:ext cx="3942815" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9452,26 +11069,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
@@ -9533,7 +11150,7 @@
         <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>5</v>
@@ -9556,7 +11173,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>5</v>
@@ -9579,7 +11196,7 @@
         <v>51</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
@@ -9602,7 +11219,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
@@ -9688,7 +11305,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>5</v>
@@ -9751,7 +11368,7 @@
         <v>45</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>5</v>
@@ -9774,7 +11391,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>5</v>
@@ -9797,7 +11414,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>5</v>
@@ -9839,7 +11456,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>5</v>
@@ -9860,7 +11477,7 @@
         <v>45</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>5</v>
@@ -9883,7 +11500,7 @@
         <v>45</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>5</v>
@@ -9906,7 +11523,7 @@
         <v>45</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>5</v>
@@ -10013,7 +11630,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>5</v>
@@ -10034,7 +11651,7 @@
         <v>45</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>5</v>
@@ -10076,7 +11693,7 @@
         <v>48</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>5</v>
@@ -10094,10 +11711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D8" sqref="B8:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10144,14 +11761,14 @@
         <v>88</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="225">
@@ -10165,14 +11782,14 @@
         <v>89</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="225">
@@ -10186,14 +11803,14 @@
         <v>90</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="300">
@@ -10204,16 +11821,16 @@
         <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>5</v>
@@ -10230,10 +11847,10 @@
         <v>86</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>91</v>
@@ -10242,8 +11859,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="150">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:7" ht="90">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>84</v>
       </c>
@@ -10259,355 +11878,442 @@
       <c r="F7" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="240">
+    <row r="8" spans="1:7" ht="150">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>151</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="180">
+    <row r="9" spans="1:7" ht="255">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>158</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="360">
+    <row r="10" spans="1:7" ht="300">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>5</v>
+        <v>164</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="180">
+    <row r="11" spans="1:7" ht="409.5">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="150">
+    <row r="12" spans="1:7" ht="240">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="409.5">
+    <row r="13" spans="1:7" ht="375">
       <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="C13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="180">
+    <row r="14" spans="1:7" ht="195">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>85</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>5</v>
+        <v>101</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="409.5">
+    <row r="15" spans="1:7" ht="150">
       <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>85</v>
-      </c>
+      <c r="C15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>5</v>
+        <v>102</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="409.5">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>85</v>
+        <v>105</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="240">
+    <row r="17" spans="1:7" ht="409.5">
       <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="270">
-      <c r="A18" s="1">
-        <v>16</v>
+    <row r="18" spans="1:7" ht="180">
+      <c r="A18" s="22">
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="240">
+    <row r="19" spans="1:7" ht="409.5">
       <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="255">
+    <row r="20" spans="1:7" ht="409.5">
       <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="C20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="270">
+    <row r="21" spans="1:7" ht="240">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="240">
+    <row r="22" spans="1:7" ht="270">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="240">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="255">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="270">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="240">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/FASE 2/OBSERVACIONES/Observaciones.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="Envio_lote_prefac_SAP" sheetId="1" r:id="rId1"/>
     <sheet name="Reconfig_forma_granul" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="191">
   <si>
     <t>Fecha</t>
   </si>
@@ -4249,9 +4249,6 @@
     <t>27.04.12</t>
   </si>
   <si>
-    <t>No se pude probar</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
     </r>
@@ -5800,527 +5797,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón Generar Gráfico de Combinación de Agregados. En la pantalla de generación del gráfico indiqué lo siguiente:
-En la búsqueda de muestra G1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Piura. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A.G. chancado TMN=3/8" a No. 8 - H8. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 11-0000110973.
-En la búsqueda de muestra F1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Piura. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 11-0000106278.
-En la búsqueda de muestra G2:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Piura. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A.G. chancado TMN=1" a No. 4 - H57. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 11-0000106248.
-En la búsqueda de muestra F2:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Piura. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 11-0000106277.
-En la elección de porcentajes escribo:
-En la columna Grueso: 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna Fino: 0.40 - 0.40 - 0.40 - 0.50 - 0.42. En la penultima columna G1: 25. En la penultima columna G2: 75. En la penultima columna F1: 50. En la penultima columna F2: 80. En la ultima columna G1: 20. En la ultima columna G2: 80. En la última columna F1: 50. En la última columna F2: 50. En la elección de especificaciones: 
-Seleccioné ACI 304. Seleccioné ESP DIN 1045. Seleccioné Fuller. Pulsé en el botón Generar Gráfico.
-</t>
-    </r>
-  </si>
-  <si>
     <t>Sistema muestra mensaje indicando que los finos deben sumar 100%.</t>
   </si>
   <si>
@@ -6340,779 +5816,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Generar gráfico de combinación de agregados - 2 gruesos 2 finos - elección de porcentajes no suman 100%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón Generar Gráfico de Combinación de Agregados. En la pantalla de generación del gráfico indiqué lo siguiente:
-En la busqueda de muestra G1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Piura. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A.G. chancado TMN=3/8" a No. 8 - H8. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 11-0000110973.
-En la búsqueda de muestra F1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Piura. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 11-0000106278.
-En la búsqueda de muestra G2:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Piura. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A.G. chancado TMN=1" a No. 4 - H57. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 11-0000106248.
-En la búsqueda de muestra F2:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Piura. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 11-0000106277.
-En la búsqueda de muestra G3:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Piura. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A.G. chancado TMN=1" a No. 4 - H57. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 11-0000106247.
-En la búsqueda de muestra F3:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Piura. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Agregado fino 1 - T2. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 11-0000106276.</t>
     </r>
   </si>
   <si>
@@ -7515,288 +6218,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Generar gráfico de combinación de agregados - 1 grueso y otro producto que no es agregado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Generar Gráfico de Combinación de Agregados</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. En la pantalla de generación del gráfico indiqué lo siguiente:
-En la busqueda de muestra G1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Recepción y almacenaje de M.P. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A.G. chancado TMN=1" a 3/8" - H56. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 8-0000094169.
-En la busqueda de muestra F1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Almac. y Despacho de Prefabricados. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Adoquín 4 TMS. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Buscar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Elegí la que tiene</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 11-0000231774</t>
     </r>
   </si>
   <si>
@@ -10492,12 +8913,866 @@
   <si>
     <t xml:space="preserve">Me desloguea cuando selecciono la muestra 12-0000000052. Y tambien cuando quiero registrar más ensayos. Por favor verificar. </t>
   </si>
+  <si>
+    <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón Generar Gráfico de Combinación de Agregados. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la busqueda de muestra G1:
+ Elegí la que tiene ID: 12-0000000050. 
+En la busqueda de muestra F1:
+Elegí la que tiene ID: 12-0000000051. 
+En la búsqueda de muestra G2:
+Elegí la que tiene ID: 12-0000000052. 
+En la búsqueda de muestra F2: 
+Elegí la que tiene ID: 12-0000000053. 
+En la elección de porcentajes escribo:
+En la columna Grueso: 0.60 - 0.60 - 0.60 - 0.50 - 0.58. En la columna Fino: 0.40 - 0.40 - 0.40 - 0.50 - 0.42. En la penultima columna G1: 25. En la penultima columna G2: 75. En la penultima columna F1: 50. En la penultima columna F2: 80. En la ultima columna G1: 20. En la ultima columna G2: 80. En la última columna F1: 50. En la última columna F2: 50. En la elección de especificaciones: 
+Seleccioné ACI 304. Seleccioné ESP DIN 1045. Seleccioné Fuller. Pulsé en el botón Generar Gráfico.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulsó sobre el botón Generar Gráfico de Combinación de Agregados. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la busqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+ Elegí la que tiene ID: 12-0000000050. 
+En la busqueda de muestra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> F1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+Elegí la que tiene ID: 12-0000000051. 
+En la búsqueda de muestra</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+Elegí la que tiene ID: 12-0000000052. 
+En la búsqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 
+Elegí la que tiene ID: 12-0000000053. 
+En la búsqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A.G. chancado TMN=1" a No. 4 - H57. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-24. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha fin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-25. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 12-0000000058. Los valores de los tamices son: 3/4"--&gt;4540. 1/2" --&gt;6240. 3/8" --&gt; 2660. N°4 --&gt; 7300. 
+En la búsqueda de muestra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Piura. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Zarandeo y Chancado de Agregados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Agregado fino 1 - T2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-24. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha fin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-25. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 12-0000000059. Los valores de los tamices son: N°4--&gt; 1.9. N°8--&gt; 55.8. N°16--&gt; 154.8. N°30--&gt; 281.5. N°50--&gt; 293.7. N°100--&gt; 117.8. N°200--&gt; 23.9. Fondo--&gt;8.2</t>
+    </r>
+  </si>
+  <si>
+    <t>Se cayó la aplicación</t>
+  </si>
+  <si>
+    <t>En la leyenda del grafico se visualiza "C2" que es un parametro de otra especificacion que no ha sido seleccionada, no deberia estar. Corregir líneas de gráfico y verificar que los valores que se estén graficando sean los correctos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Luego de haber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generado gráfico de combinación de agregados - 3 gruesos 3 finos - se debe poder borrar ID muestra</t>
+    </r>
+  </si>
+  <si>
+    <t>Tomando en cuenta el caso de prueba anterior, borré el ID de muestra del campo G2.</t>
+  </si>
+  <si>
+    <t>El sistema no me permite borrar, porque?. Por favor corregir</t>
+  </si>
+  <si>
+    <t>Sistema borra el ID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia que se generó el grafico del registro de ensayo granulométrico, pulso sobre el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generar Gráfico de Combinación de Agregados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. En la pantalla de generación del gráfico indiqué lo siguiente:
+En la busqueda de muestra G1:
+ Elegí la que tiene ID: 12-0000000050. 
+En la busqueda de muestra F1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Almac. y Despacho de Prefabricados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Adoquín 4 TMS. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha de inicio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 2011-07-01.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fecha fin: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2011-12-01. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buscar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Elegí la que tiene</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 11-0000231774</t>
+    </r>
+  </si>
+  <si>
+    <t>Pantalla se pone en blanco</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar muestra con nuevo huso - proceso Zarandeo y Chancado de Agregados</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Entré como fgastanaudi a la funcionalidad Administrar Muestra, luego pulsé en el botón Registrar. En el formulario de creación seleccioné los siguientes datos:
+Empresa: CSSA. Planta: Premezclados Rioja. Proceso: Zarandeo y Chancado de agregados. Producto: Huso 9. Equipo: Genérico. Fecha muestra: 2012-04-25. Hora: 00:00. Pulsé en el botón Registrar. Luego en la pestaña Ensayos. En el botón Granulométrico. </t>
+  </si>
+  <si>
+    <t>Sistema muestra la pantalla de registro de ensayo granulometrico con el combo de grupo tipo de ensayo para seleccionar</t>
+  </si>
+  <si>
+    <t>Actualmente no está implementada está mejora</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar muestra con nuevo huso - proceso Zarandeo y Chancado de Agregados - verificar tipos de ensayos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando el caso de prueba anterior, en la pantalla de registro de ensayo granulometrico, luego de haber creado la muestra mencionada líneas arriba, seleccioné: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grupo Tipo de Ensayo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Analisis Granulometrico.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sistema muestra la relación de todos los tamices del grupo tipo de ensayo granulometrico, para que se escriban los valores respectivos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar muestra con nuevo huso - proceso Recepción y Almacenaje de M.P</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Entré como fgastanaudi a la funcionalidad Administrar Muestra, luego pulsé en el botón Registrar. En el formulario de creación seleccioné los siguientes datos:
+Empresa: DINO. Planta: Premezclados Pacasmayo. Proceso: Recepción y Almacenaje de M.P. Producto: Huso 89. Equipo: Genérico. Fecha muestra: 2012-04-25. Hora: 00:00. Pulsé en el botón Registrar. Luego en la pestaña Ensayos. En el botón Granulométrico. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Re-configurar formatos de granulometría - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar muestra con nuevo huso - proceso Recepción y Almacenaje de M.P - Verificar tipos de ensayos</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10654,7 +9929,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -10663,6 +9938,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -10762,6 +10042,154 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>154782</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1142998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1845469</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2786061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="35643" t="39891" r="34472" b="37666"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000751" y="62460186"/>
+          <a:ext cx="3893343" cy="1643063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>940594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2583658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="35144" t="39718" r="33831" b="37818"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5917407" y="77866875"/>
+          <a:ext cx="4036218" cy="1643064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1797845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1059656</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3608956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="3 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="12538" t="35486" r="29805" b="5424"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5965031" y="85201126"/>
+          <a:ext cx="3143250" cy="1811111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1226344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1933869</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>3333750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="4 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="14460" t="42811" r="29072" b="5424"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5893595" y="88558688"/>
+          <a:ext cx="4088899" cy="2107406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10840,6 +10268,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -10874,6 +10303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -11049,14 +10479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
@@ -11068,7 +10498,7 @@
     <col min="8" max="8" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
@@ -11079,7 +10509,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>30</v>
       </c>
@@ -11090,7 +10520,7 @@
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
@@ -11101,7 +10531,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
@@ -11112,7 +10542,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -11133,7 +10563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="135" customHeight="1">
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -11150,13 +10580,13 @@
         <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="270">
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -11173,13 +10603,13 @@
         <v>50</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="120">
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -11196,13 +10626,13 @@
         <v>51</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75">
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -11219,13 +10649,13 @@
         <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -11246,7 +10676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -11267,7 +10697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60">
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -11288,7 +10718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="330">
+    <row r="13" spans="1:7" ht="390" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -11305,13 +10735,13 @@
         <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="60">
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>7</v>
@@ -11332,7 +10762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60">
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
@@ -11353,7 +10783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="75">
+    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -11368,13 +10798,13 @@
         <v>45</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="75">
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -11391,13 +10821,13 @@
         <v>45</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="315">
+    <row r="18" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -11414,13 +10844,13 @@
         <v>27</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60">
+    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>7</v>
@@ -11441,7 +10871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60">
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
@@ -11456,13 +10886,13 @@
         <v>45</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="75">
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -11477,13 +10907,13 @@
         <v>45</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="90">
+    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -11500,13 +10930,13 @@
         <v>45</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="315">
+    <row r="23" spans="1:7" ht="405" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>9</v>
       </c>
@@ -11523,13 +10953,13 @@
         <v>45</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="315">
+    <row r="24" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10</v>
       </c>
@@ -11552,7 +10982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60">
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>7</v>
@@ -11573,7 +11003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>7</v>
@@ -11594,7 +11024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60">
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>7</v>
@@ -11615,7 +11045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="178.5" customHeight="1">
+    <row r="28" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>7</v>
@@ -11630,13 +11060,13 @@
         <v>40</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="135">
+    <row r="29" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -11651,13 +11081,13 @@
         <v>45</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="105">
+    <row r="30" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>7</v>
@@ -11678,7 +11108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="240">
+    <row r="31" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>7</v>
@@ -11693,7 +11123,7 @@
         <v>48</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>5</v>
@@ -11710,14 +11140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="14" customWidth="1"/>
@@ -11729,7 +11159,7 @@
     <col min="8" max="8" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -11750,7 +11180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="225">
+    <row r="2" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11758,20 +11188,20 @@
         <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="225">
+    <row r="3" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11779,20 +11209,20 @@
         <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="225">
+    <row r="4" spans="1:7" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11800,20 +11230,20 @@
         <v>84</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="300">
+    <row r="5" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11821,22 +11251,22 @@
         <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.5">
+    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -11844,22 +11274,22 @@
         <v>84</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="90">
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -11867,22 +11297,22 @@
         <v>84</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="150">
+    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -11890,22 +11320,22 @@
         <v>84</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="255">
+    <row r="9" spans="1:7" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -11913,22 +11343,22 @@
         <v>84</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="300">
+    <row r="10" spans="1:7" ht="300" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -11936,20 +11366,20 @@
         <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="409.5">
+    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -11957,22 +11387,22 @@
         <v>84</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="240">
+    <row r="12" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -11980,22 +11410,22 @@
         <v>84</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="375">
+    <row r="13" spans="1:7" ht="405" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -12003,22 +11433,22 @@
         <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="195">
+    <row r="14" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -12026,20 +11456,20 @@
         <v>84</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="150">
+    <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -12047,20 +11477,20 @@
         <v>84</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="409.5">
+    <row r="16" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -12068,66 +11498,66 @@
         <v>84</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="409.5">
+    <row r="17" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="180">
-      <c r="A18" s="22">
+    <row r="18" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="409.5">
+    <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -12135,22 +11565,22 @@
         <v>84</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>85</v>
+        <v>171</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="409.5">
+    <row r="20" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -12158,22 +11588,20 @@
         <v>84</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>5</v>
+      <c r="G20" s="22" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="240">
+    <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -12181,22 +11609,22 @@
         <v>84</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="270">
+    <row r="22" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -12204,22 +11632,22 @@
         <v>84</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>85</v>
+        <v>110</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="240">
+    <row r="23" spans="1:7" ht="240" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -12227,22 +11655,22 @@
         <v>84</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="255">
+    <row r="24" spans="1:7" ht="309.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -12250,22 +11678,22 @@
         <v>84</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="270">
+    <row r="25" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -12273,22 +11701,22 @@
         <v>84</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>110</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="240">
+    <row r="26" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -12296,18 +11724,133 @@
         <v>84</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>85</v>
+        <v>176</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="268.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/FASE 2/OBSERVACIONES/Observaciones.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Envio_lote_prefac_SAP" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="190">
   <si>
     <t>Fecha</t>
   </si>
@@ -4001,13 +4001,7 @@
     <t>Aparece en la funcionalidad Envío de lotes prefabricados a SAP, indicando el nombre de que no hay conexión. Por si acaso se corrieron los scripts de codigos de equivalencia. Para este escenario el resultado esperado está en la columna F</t>
   </si>
   <si>
-    <t>En la funcionalidad Envío de lotes Prefabricados a SAP falta un checkbox con el estado eliminado, para poder hacer la búsqueda y saber si el estado eliminado se envió a SAP. Por otra parte, cuando le doy en Buscar por estado "Registrado" me aparece el lote que eliminé, en todo caso, en la tabla error se guardó el ID del lote que en un primer momento se registró, y al hacer la consulta de los datos de este lote, ya no los encontrará en la base de datos (porque luego se eliminó) entonces no debería de listarse en la funcionalidad Envío de lotes con el estado "Registrado"</t>
-  </si>
-  <si>
     <t>Confirmar</t>
-  </si>
-  <si>
-    <t>Cuando ingresé a SAP no se registró nada, sin embargo no aparece en la funcionalidad de envío de lotes prefabricados a SAP</t>
   </si>
   <si>
     <r>
@@ -9766,6 +9760,9 @@
       </rPr>
       <t>Registrar muestra con nuevo huso - proceso Recepción y Almacenaje de M.P - Verificar tipos de ensayos</t>
     </r>
+  </si>
+  <si>
+    <t>En la funcionalidad Envío de lotes Prefabricados a SAP falta un checkbox con el estado eliminado, para poder hacer la búsqueda y saber si el estado eliminado se envió a SAP. Por otra parte, cuando quise registrar un lote con las mismas caracteristicas del primer caso de prueba no me dejó registrar, sin embargo cuando lo dejé con la hora de hoy 03/05/2012 si pude registrar.</t>
   </si>
 </sst>
 </file>
@@ -9864,7 +9861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9923,13 +9920,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -10482,8 +10482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10499,26 +10499,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -10580,13 +10580,13 @@
         <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>5</v>
+        <v>119</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -10600,10 +10600,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>5</v>
@@ -10623,10 +10623,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
@@ -10645,11 +10645,11 @@
       <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>52</v>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
@@ -10661,16 +10661,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>5</v>
@@ -10682,16 +10682,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>5</v>
@@ -10703,16 +10703,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>5</v>
@@ -10735,7 +10735,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>5</v>
@@ -10747,16 +10747,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>5</v>
@@ -10768,16 +10768,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>5</v>
@@ -10789,16 +10789,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>5</v>
@@ -10821,7 +10821,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>5</v>
@@ -10844,10 +10844,10 @@
         <v>27</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>5</v>
+        <v>126</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -10856,16 +10856,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>5</v>
@@ -10886,7 +10886,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>5</v>
@@ -10898,16 +10898,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>5</v>
@@ -10930,7 +10930,7 @@
         <v>45</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>5</v>
@@ -10953,7 +10953,7 @@
         <v>45</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>5</v>
@@ -10988,16 +10988,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>5</v>
@@ -11009,16 +11009,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>5</v>
@@ -11030,16 +11030,16 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>5</v>
@@ -11060,7 +11060,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>5</v>
@@ -11081,7 +11081,7 @@
         <v>45</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>5</v>
@@ -11123,7 +11123,7 @@
         <v>48</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>5</v>
@@ -11143,7 +11143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -11185,20 +11185,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="225" x14ac:dyDescent="0.25">
@@ -11206,20 +11206,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="225" x14ac:dyDescent="0.25">
@@ -11227,20 +11227,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="300" x14ac:dyDescent="0.25">
@@ -11248,19 +11248,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>5</v>
@@ -11271,19 +11271,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>5</v>
@@ -11294,19 +11294,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>5</v>
@@ -11317,19 +11317,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
@@ -11340,19 +11340,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
@@ -11363,20 +11363,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -11384,19 +11384,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>5</v>
@@ -11407,19 +11407,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>5</v>
@@ -11430,19 +11430,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>5</v>
@@ -11453,20 +11453,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -11474,20 +11474,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -11495,22 +11495,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -11519,19 +11519,19 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>169</v>
-      </c>
       <c r="E17" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -11539,19 +11539,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>5</v>
@@ -11562,19 +11562,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>5</v>
@@ -11585,20 +11585,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>136</v>
+        <v>95</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -11606,19 +11606,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>5</v>
@@ -11629,19 +11629,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>5</v>
@@ -11652,19 +11652,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>5</v>
@@ -11675,19 +11675,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>5</v>
@@ -11698,19 +11698,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>5</v>
@@ -11721,19 +11721,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>5</v>
@@ -11744,19 +11744,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>5</v>
@@ -11767,19 +11767,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>5</v>
@@ -11790,19 +11790,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>5</v>
@@ -11813,19 +11813,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>5</v>
@@ -11836,19 +11836,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>5</v>

--- a/FASE 2/OBSERVACIONES/Observaciones.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="189">
   <si>
     <t>Fecha</t>
   </si>
@@ -3996,9 +3996,6 @@
   </si>
   <si>
     <t>Actualmente en la funcionalidad Envío de lotes prefabricados a SAP aparece el lote indicando que no hay conexión en SAP, sin embargo se ejecutó el script para que todas las plantas tengan el mismo código de equivalencia, por lo que hay error aqui, debería haber pasado. Sin embargo, para este caso de prueba el escenario correcto es: la empresa y planta premezclados rioja no tienen codigos de equivalencia (centro, almacen e imputación), por lo que debería registrar el lote e ir a la tabla de errores de transferencia al SAP.</t>
-  </si>
-  <si>
-    <t>Aparece en la funcionalidad Envío de lotes prefabricados a SAP, indicando el nombre de que no hay conexión. Por si acaso se corrieron los scripts de codigos de equivalencia. Para este escenario el resultado esperado está en la columna F</t>
   </si>
   <si>
     <t>Confirmar</t>
@@ -9762,7 +9759,7 @@
     </r>
   </si>
   <si>
-    <t>En la funcionalidad Envío de lotes Prefabricados a SAP falta un checkbox con el estado eliminado, para poder hacer la búsqueda y saber si el estado eliminado se envió a SAP. Por otra parte, cuando quise registrar un lote con las mismas caracteristicas del primer caso de prueba no me dejó registrar, sin embargo cuando lo dejé con la hora de hoy 03/05/2012 si pude registrar.</t>
+    <t>En la funcionalidad Envío de lotes Prefabricados a SAP falta un checkbox con el estado eliminado, para poder hacer la búsqueda y saber si el estado eliminado se envió a SAP. Por otra parte, cuando quise registrar un lote con las mismas caracteristicas del primer caso de prueba (fechas: 2012-04-25. Hora inicio 02:00 y hora fin: 03:00, no me dejó registrar, sin embargo cuando lo dejé con la hora de hoy 03/05/2012 si pude registrar.</t>
   </si>
 </sst>
 </file>
@@ -9923,14 +9920,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10482,8 +10479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10499,26 +10496,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -10576,17 +10573,15 @@
       <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>134</v>
+        <v>118</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -10600,10 +10595,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>5</v>
@@ -10623,10 +10618,10 @@
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
@@ -10646,10 +10641,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
@@ -10661,16 +10656,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>5</v>
@@ -10682,16 +10677,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>5</v>
@@ -10703,16 +10698,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>5</v>
@@ -10735,7 +10730,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>5</v>
@@ -10747,16 +10742,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>5</v>
@@ -10768,16 +10763,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>5</v>
@@ -10789,16 +10784,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>5</v>
@@ -10821,7 +10816,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>5</v>
@@ -10844,10 +10839,10 @@
         <v>27</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>134</v>
+        <v>125</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -10856,16 +10851,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>5</v>
@@ -10886,7 +10881,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>5</v>
@@ -10898,16 +10893,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>5</v>
@@ -10930,7 +10925,7 @@
         <v>45</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>5</v>
@@ -10953,7 +10948,7 @@
         <v>45</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>5</v>
@@ -10988,16 +10983,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>5</v>
@@ -11009,16 +11004,16 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>5</v>
@@ -11030,16 +11025,16 @@
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>5</v>
@@ -11060,7 +11055,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>5</v>
@@ -11081,7 +11076,7 @@
         <v>45</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>5</v>
@@ -11123,7 +11118,7 @@
         <v>48</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>5</v>
@@ -11185,20 +11180,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="225" x14ac:dyDescent="0.25">
@@ -11206,20 +11201,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="225" x14ac:dyDescent="0.25">
@@ -11227,20 +11222,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="300" x14ac:dyDescent="0.25">
@@ -11248,19 +11243,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>5</v>
@@ -11271,19 +11266,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>5</v>
@@ -11294,19 +11289,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>5</v>
@@ -11317,19 +11312,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
@@ -11340,19 +11335,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
@@ -11363,20 +11358,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -11384,19 +11379,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>5</v>
@@ -11407,19 +11402,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>5</v>
@@ -11430,19 +11425,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>5</v>
@@ -11453,20 +11448,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -11474,20 +11469,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -11495,22 +11490,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -11519,19 +11514,19 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>168</v>
-      </c>
       <c r="F17" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -11539,19 +11534,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>5</v>
@@ -11562,19 +11557,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>5</v>
@@ -11585,20 +11580,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -11606,19 +11601,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>5</v>
@@ -11629,19 +11624,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>5</v>
@@ -11652,19 +11647,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>5</v>
@@ -11675,19 +11670,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>5</v>
@@ -11698,19 +11693,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>5</v>
@@ -11721,19 +11716,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>5</v>
@@ -11744,19 +11739,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>5</v>
@@ -11767,19 +11762,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>5</v>
@@ -11790,19 +11785,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>5</v>
@@ -11813,19 +11808,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>5</v>
@@ -11836,19 +11831,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>5</v>

--- a/FASE 2/OBSERVACIONES/Observaciones.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
@@ -10,12 +10,12 @@
     <sheet name="Envio_lote_prefac_SAP" sheetId="1" r:id="rId1"/>
     <sheet name="Reconfig_forma_granul" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="194">
   <si>
     <t>Fecha</t>
   </si>
@@ -123,71 +123,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Lote tamaño actualizado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tomando como referencia el caso de prueba anterior. Ingresé a la funcionalidad Administrar Lote y busqué el lote recientemente registrado, pulsé sobre el ID para ver su detalle y luego pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Eliminar.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote recientemente creado, para ver su detalle, en esa pantalla, escribí los siguientes datos:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tamaño:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 18200 unidades. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Turno:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I Turno
-Pulsé en el botón Modificar.</t>
     </r>
   </si>
   <si>
@@ -2617,757 +2552,6 @@
     </r>
   </si>
   <si>
-    <t>Ingresé a la funcionalidad Envío de lotes prefabricados a SAP y me aparece el lote que he creado recientemente, pese a que estoy conectada a la VPN</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Entré como fgastanaudi. Ingresé a Administrar Lote, pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Registrar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Sistema me muestra el formulario de creación. Selecciono los siguientes datos:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Trujillo. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Línea de producción</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Bloque Estructural - Tipo MS. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Producto: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pared 14 TMS. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tamaño:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  5643 unidades</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Fecha inicio producción: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2012-04-23. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hora ini. prod.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 14:00. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Fecha fin producción: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2012-04-23. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hora fin prod.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 15:00. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Registrar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Pulsé sobre la pestaña </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Muestras,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> luego en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Registrar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> En el formulario se cargan los siguientes datos del lote:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID lote</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fecha inicio de producción:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2012-04-23. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hora ini. prod.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 14:00. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Empresa:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DINO. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Planta:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Premezclados Trujillo. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Producto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Pared 14 TMS. Seleccioné los siguientes datos:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Proceso:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Almac. y Despacho de Prefabricados. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Equipo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Genérico. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fecha muestra</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 2012-04-23. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hora muestra</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 16:00. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Registrar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Pulsé sobre la pestaña </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ensayos.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Luego en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Registrar.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Registro los siguientes datos en los tipos de ensayo indicados:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Largo:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 39. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ancho:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 14. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Altura:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 19. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Espesor pared</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Espesor de tabique</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 3. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Resistencia a compresión 2d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 43 - 38 - 47. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Resistencia a Compresión 14d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 68 - 66 - 65. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Resistencia a Compresión 28d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: 58 - 47 - 77. Pulsé en el botón </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Registrar.</t>
-    </r>
-  </si>
-  <si>
-    <t>Cuando le dí en registrar a los ensayos me apareció la pantalla en blanco solo con la cabecera. Si cambia el estado del lote a No conforme sin embargo no envia a SAP y cuando le dí transferir manualmente desde la funcionalidad envío de lotes a SAP, se cayó la aplicación.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Entré como fgastanaudi. Ingresé a Administrar Lote, pulsé en el botón Registrar. Sistema me muestra el formulario de creación. Selecciono los siguientes datos:
 </t>
@@ -3604,75 +2788,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>En la funcionalidad Envío de Lotes Prefabricados a SAP sólo aparecerán los lotes que no pudieron enviarse a SAP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nota 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> En SAP GUI si no existe registro de la RFC se entiende que no ha sido llamada por SAC. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nota 3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> En SAP GUI en caso de existir llamada a la RFC y el log está vacío, se entiende que no ha habido problemas con la ejecución de la RFC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Nota 4:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> En SAP GUI en caso de existir llamada a la RFC y el log está con mensajes, se entiende que ha habido problemas para ejecutar la RFC</t>
     </r>
   </si>
   <si>
@@ -3728,9 +2843,6 @@
 </t>
   </si>
   <si>
-    <t>No me deja registrar más ensayos porque aparece que no tengo el alcance a la muestra. No he podido probar.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
     </r>
@@ -3996,9 +3108,6 @@
   </si>
   <si>
     <t>Actualmente en la funcionalidad Envío de lotes prefabricados a SAP aparece el lote indicando que no hay conexión en SAP, sin embargo se ejecutó el script para que todas las plantas tengan el mismo código de equivalencia, por lo que hay error aqui, debería haber pasado. Sin embargo, para este caso de prueba el escenario correcto es: la empresa y planta premezclados rioja no tienen codigos de equivalencia (centro, almacen e imputación), por lo que debería registrar el lote e ir a la tabla de errores de transferencia al SAP.</t>
-  </si>
-  <si>
-    <t>Confirmar</t>
   </si>
   <si>
     <r>
@@ -6215,34 +5324,16 @@
     <t>El sistema muestra indicando que el producto debe ser agregado.</t>
   </si>
   <si>
-    <t>Aparece mensaje de que se realizó la operación con éxito. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
-  </si>
-  <si>
-    <t>Aparece mensaje de que se realizó la operación con éxito. En SAC se elimina físicamente el lote. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
-  </si>
-  <si>
-    <t>Aparece mensaje de que se realizó la operación con éxito. El SAC no envía información del lote a SAP, porque no tiene el tamaño del lote. En SAP GUI se consulta transacción SE16N</t>
-  </si>
-  <si>
     <t>Aparece mensaje de que se realizó la operación con éxito. El SAC envía información del lote a SAP. En SAP GUI se consulta transacción SE16N.</t>
   </si>
   <si>
-    <t>Aparece mensaje de éxito de la operación de que se registraron correctamente los ensayos. El estado del lote cambia de estado a Conforme. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
-  </si>
-  <si>
     <t>Aparece mensaje de éxito de la operación. En la funcionalidad Envío de Lotes Prefabricados a Sap no aparece el lote modificado recientemente. En SAP GUI se consulta transacción SE16N</t>
   </si>
   <si>
-    <t>Aparece mensaje de éxito de la operación. En SAC se elimina fisicamente el lote. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
-  </si>
-  <si>
     <t>Aparece mensaje de éxito de la operación de que se registraron correctamente los ensayos. El estado del lote cambia de estado a No Conforme. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
   </si>
   <si>
     <t>Aparece mensaje de éxito de la operación. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
-  </si>
-  <si>
-    <t>Aparece mensaje de éxito de la operación. SAC elimina físicamente al lote y todos sus datos relacionados. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16N</t>
   </si>
   <si>
     <t>Aparece mensaje de éxito de la operación de que se registraron correctamente los ensayos. El estado del lote cambia de estado a Conforme. En la funcionalidad Envío de lotes prefabricados a SAP aparece el lote con ID: 11-0000030080, con el mensaje de error de SAP, en vista de que es un lote antiguo y antes no ha sido registrado en SAP, por lo que el RFC de traslado no encuentra el ID. En SAP GUI se consulta transacción SE16N</t>
@@ -9759,14 +8850,1945 @@
     </r>
   </si>
   <si>
-    <t>En la funcionalidad Envío de lotes Prefabricados a SAP falta un checkbox con el estado eliminado, para poder hacer la búsqueda y saber si el estado eliminado se envió a SAP. Por otra parte, cuando quise registrar un lote con las mismas caracteristicas del primer caso de prueba (fechas: 2012-04-25. Hora inicio 02:00 y hora fin: 03:00, no me dejó registrar, sin embargo cuando lo dejé con la hora de hoy 03/05/2012 si pude registrar.</t>
+    <t>Aparece mensaje de éxito de la operación de que se registraron correctamente los ensayos. El estado del lote cambia de estado a No Conforme. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote.  En SAP GUI se consulta transacción SE16 en la tabla MKPF para ver si se ejecutó la transacción (ID Lote: 33268)</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de que se realizó la operación con éxito. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16 en la tabla MKPF para ver si se ejecutó la transacción (ID Lote: 33256)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nota 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> En estas pruebas se está corroborando que se llamen a las RFCs adecuadas.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nota 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Se ingresa a la transacción SE16, consultando la tabla MKPF, a la que se envía como parámetros el ID del lote para poder obtener el documento de material y con este código consultar en la MIGO.</t>
+    </r>
+  </si>
+  <si>
+    <t>Aparece mensaje de que se realizó la operación con éxito. El SAC no envía información del lote a SAP, porque no tiene el tamaño del lote. En SAP GUI se consulta transacción SE16 en la tabla MKPF para ver si se ejecutó la transacción. (ID Lote: 33070)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomando como referencia el caso de prueba anterior, pulsé sobre el ID del lote (33070) recientemente creado, para ver su detalle, en esa pantalla, escribí los siguientes datos:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tamaño:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 18200 unidades.
+Pulsé en el botón Modificar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cuando ingresé al SAP, me indicó el sistema que no se había llamado a ninguna RFC. Por favor verificar que desde el SAC, se llame a la RFC adecuada cuando haya una actualización del tamaño del lote.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ingresé a Administrar Lote, pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sistema me muestra el formulario de creación. Selecciono los siguientes datos:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Línea de producción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Bloque Estructural - Tipo MS. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pared 12 TMS. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tamaño:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 18200 unidades. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio producción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-25. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hora ini. prod.:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 09:00. Fecha fin producción: 2012-04-25. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hora fin prod.:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10:00. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Luego pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eliminar.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Aparece mensaje de que se realizó la operación con éxito. En SAC se elimina físicamente el lote. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se ejecuta la primera RFC de ingreso con documento de material: 5000000724 y 5000000725 (ID Lote: 33071). Luego se ejecuta la RFC de transacción, con documento de material: 5000000726 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar que desde el SAC al momento de eliminar llame a la RFC de reversión. En el SAP, sigue apareciendo como que está en estado Control de Calidad, cuando debió cambiar se almacen. (ID Lote: 33071)
+Por otra parte, en la funcionalidad Envío de lotes Prefabricados a SAP falta un checkbox con el estado eliminado, para poder hacer la búsqueda y saber si el estado eliminado se envió a SAP. </t>
+  </si>
+  <si>
+    <t>Falta implementar esta validación</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ingresé a Administrar Lote, pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sistema me muestra el formulario de creación. Selecciono los siguientes datos:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Línea de producción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bloque Estructural - Tipo MS. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pared 12 TMS. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tamaño:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 18200 unidades. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio producción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-25. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hora ini. prod.:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12:00. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fecha fin producción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2012-04-25. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hora fin prod.:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 13:00. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Envío de Lotes Prefabricados a SAP - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registré lote sin conexión a la VPN</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Aparece mensaje de éxito de la operación de que se registraron correctamente los ensayos. El estado del lote cambia de estado a Conforme. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se ejecuta MKPF para averiguar las transacciones realizadas con el (ID Lote: 33274). </t>
+  </si>
+  <si>
+    <t>Verificar desde el SAC si está llamando a la RFC de traslado, porque cuando ingreso a SAP el lote aparece con estado Control de Calidad, cuando debería ser "Conforme". Las únicas transacciones ejecutadas son: 5000000729 y 5000000730 (ID Lote: 33274)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entré como fgastanaudi. Ingresé a Administrar Lote, pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sistema me muestra el formulario de creación. Selecciono los siguientes datos:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Trujillo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Línea de producción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Bloque Estructural - Tipo MS. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Producto: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pared 14 TMS. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tamaño:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  5643 unidades. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fecha inicio producción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2012-04-23. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hora ini. prod.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 14:00. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fecha fin producción: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2012-04-23. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hora fin prod.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 15:00. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pulsé sobre la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Muestras,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> luego en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> En el formulario se cargan los siguientes datos del lote:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID lote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio de producción:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2012-04-23. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hora ini. prod.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 14:00. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Trujillo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Producto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pared 14 TMS. Seleccioné los siguientes datos:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Almac. y Despacho de Prefabricados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Equipo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Genérico. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha muestra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-23. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hora muestra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 16:00. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Pulsé sobre la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ensayos.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Luego en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Registro los siguientes datos en los tipos de ensayo indicados:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Largo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 39. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ancho:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 14. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Altura:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 19. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Espesor pared</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Espesor de tabique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resistencia a compresión 2d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 43 - 38 - 47. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resistencia a Compresión 14d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 68 - 66 - 65. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resistencia a Compresión 28d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 58 - 47 - 77. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Registrar.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Entré como fgastanaudi. Ingresé a Administrar Lote, pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sistema me muestra el formulario de creación. Selecciono los siguientes datos:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empresa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DINO. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Planta:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Premezclados Pacasmayo. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Línea de producción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Bloque Estructural - Tipo MS. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Producto: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pared 12 TMS. Tamaño: 18200 unidades. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha inicio producción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-23. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hora ini. prod.:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12:00. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha fin producción</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 2012-04-23. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hora fin prod.:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 13:00. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pulsé sobre la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Muestras,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> luego en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> En el formulario se cargan los datos del lote y selecciono lo siguiente:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proceso:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Almac. y Despacho de Prefabricados. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Equipo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Genérico. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fecha muestra: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2012-04-23. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hora muestra:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 13:00. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Pulsé sobre la pestaña Ensayos. Luego en el botón Ensayo. Registro los siguientes datos en los tipos de ensayo indicados:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Largo:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 39. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ancho:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Altura:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 19. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Espesor pared</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 3. E</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spesor de tabique:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resistencia a compresión 1d: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">56 - 53 - 50. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Resistencia a Compresión 14d: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">84 - 81 - 83. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Resistencia a Compresión 28d:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 88 - 90 - 91. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Absorción 12d: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6 - 6 - 6. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Color y Textura: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C. Pulsé en el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Luego ingreso a ver el detalle del lote y pulso sobre el botón </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eliminar.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Aparece mensaje de éxito de la operación. En SAC se elimina fisicamente el lote. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se ejecuta MKPF para averiguar las transacciones realizadas con el (ID Lote: 33275). </t>
+  </si>
+  <si>
+    <t>Este lote (ID: 33268) es No Conforme, sin embargo no está cambiando en el SAC y por tanto no está llamando a ninguna RFC de traslado. Por otra parte en SAP, el lote está en control de calidad, cuando debería ser No Conforme. El documento de material es: 5000000713 y 5000000714</t>
+  </si>
+  <si>
+    <t>1. El estado del lote no está cambiando automáticamente a Conforme.
+2. No se está haciendo la transacción ni de traslado a Conforme, ni de eliminación en SAP.  (ID Lote: 33275)</t>
+  </si>
+  <si>
+    <t>Aparece mensaje de éxito de la operación. SAC elimina físicamente al lote y todos sus datos relacionados. En la funcionalidad Envío de lotes prefabricados a SAP no aparece ningún lote. En SAP GUI se consulta transacción SE16 en la tabla MKPF para ver si se ejecutó la transacción (ID Lote: 33268)</t>
+  </si>
+  <si>
+    <t>No se realizó la transacción. Está llamandola desde el SAC? Por favor verificar y corregir.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9858,7 +10880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9883,9 +10905,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -9920,7 +10939,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -10060,7 +11085,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:srcRect l="35643" t="39891" r="34472" b="37666"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -10097,7 +11122,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:srcRect l="35144" t="39718" r="33831" b="37818"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -10134,7 +11159,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:srcRect l="12538" t="35486" r="29805" b="5424"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -10171,7 +11196,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:srcRect l="14460" t="42811" r="29072" b="5424"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -10265,7 +11290,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -10300,7 +11324,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10476,14 +11499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
@@ -10495,334 +11518,336 @@
     <col min="8" max="8" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="135" customHeight="1">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="210">
+      <c r="A6" s="1">
         <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="F6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>133</v>
+        <v>180</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="120">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>188</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>5</v>
+        <v>176</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="90">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>177</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
+    <row r="9" spans="1:7" ht="60">
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="60">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="60">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:7" ht="330">
+      <c r="A12" s="22">
+        <v>5</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="390" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>5</v>
-      </c>
+    <row r="13" spans="1:7" ht="135">
+      <c r="A13" s="21"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>5</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="60">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="60">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="75">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:7" ht="330">
+      <c r="A17" s="22">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>188</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="360" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="330">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -10830,85 +11855,85 @@
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>133</v>
+        <v>172</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="60">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="60">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="75">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="105">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -10916,22 +11941,22 @@
         <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="405" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="315">
       <c r="A23" s="1">
         <v>9</v>
       </c>
@@ -10939,22 +11964,22 @@
         <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="360" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="315">
       <c r="A24" s="1">
         <v>10</v>
       </c>
@@ -10962,163 +11987,163 @@
         <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="60">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="60">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="178.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="135">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="105">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>37</v>
+      <c r="C30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="240">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>46</v>
+      <c r="C31" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>5</v>
@@ -11135,17 +12160,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="13" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="54.140625" style="8" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
@@ -11154,7 +12179,7 @@
     <col min="8" max="8" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -11175,675 +12200,675 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="225">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>133</v>
+        <v>73</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="225">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>133</v>
+        <v>119</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="225">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>133</v>
+        <v>118</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="300" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="300">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="409.5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="90">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="150">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="255">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="300" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="300">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>133</v>
+        <v>141</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="409.5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="240">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="405" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="375">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="195">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>133</v>
+        <v>87</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="150">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>133</v>
+        <v>88</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="409.5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>133</v>
+      <c r="G16" s="18" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="409.5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>133</v>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="409.5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="409.5">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>160</v>
+      <c r="B19" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="409.5" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>133</v>
+      <c r="B20" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="409.5">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="270">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="240">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="309.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="309.75" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="270">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="150">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="268.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="268.5" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="120">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="135">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="120">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="135">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>5</v>

--- a/FASE 2/OBSERVACIONES/Observaciones.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones.xlsx
@@ -11502,8 +11502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/FASE 2/OBSERVACIONES/Observaciones.xlsx
+++ b/FASE 2/OBSERVACIONES/Observaciones.xlsx
@@ -11502,8 +11502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
